--- a/results/mp/logistic/corona/confidence/126/0.5/avg_0.003_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/126/0.5/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="86">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,13 +40,13 @@
     <t>name</t>
   </si>
   <si>
+    <t>forced</t>
+  </si>
+  <si>
     <t>crisis</t>
   </si>
   <si>
-    <t>forced</t>
-  </si>
-  <si>
-    <t>die</t>
+    <t>crude</t>
   </si>
   <si>
     <t>fraud</t>
@@ -55,33 +55,27 @@
     <t>war</t>
   </si>
   <si>
-    <t>crude</t>
-  </si>
-  <si>
     <t>panic</t>
   </si>
   <si>
+    <t>sc</t>
+  </si>
+  <si>
     <t>fears</t>
   </si>
   <si>
-    <t>sc</t>
+    <t>avoid</t>
+  </si>
+  <si>
+    <t>drop</t>
+  </si>
+  <si>
+    <t>low</t>
   </si>
   <si>
     <t>emergency</t>
   </si>
   <si>
-    <t>drop</t>
-  </si>
-  <si>
-    <t>avoid</t>
-  </si>
-  <si>
-    <t>lower</t>
-  </si>
-  <si>
-    <t>low</t>
-  </si>
-  <si>
     <t>no</t>
   </si>
   <si>
@@ -91,193 +85,190 @@
     <t>demand</t>
   </si>
   <si>
+    <t>co</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
     <t>of</t>
   </si>
   <si>
-    <t>co</t>
-  </si>
-  <si>
-    <t>prices</t>
+    <t>a</t>
+  </si>
+  <si>
+    <t>the</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>corona</t>
+  </si>
+  <si>
+    <t>to</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>won</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>growth</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>giving</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>alert</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>increased</t>
+  </si>
+  <si>
+    <t>local</t>
+  </si>
+  <si>
+    <t>your</t>
+  </si>
+  <si>
+    <t>you</t>
+  </si>
+  <si>
+    <t>!</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>,</t>
+  </si>
+  <si>
+    <t>for</t>
+  </si>
+  <si>
+    <t>and</t>
+  </si>
+  <si>
+    <t>store</t>
   </si>
   <si>
     <t>are</t>
   </si>
   <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>the</t>
-  </si>
-  <si>
-    <t>,</t>
-  </si>
-  <si>
-    <t>corona</t>
-  </si>
-  <si>
-    <t>to</t>
-  </si>
-  <si>
-    <t>and</t>
-  </si>
-  <si>
-    <t>.</t>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>won</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>giving</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>alert</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>helping</t>
-  </si>
-  <si>
-    <t>give</t>
-  </si>
-  <si>
-    <t>stay</t>
-  </si>
-  <si>
-    <t>your</t>
-  </si>
-  <si>
-    <t>our</t>
-  </si>
-  <si>
-    <t>shopping</t>
-  </si>
-  <si>
-    <t>you</t>
-  </si>
-  <si>
-    <t>!</t>
-  </si>
-  <si>
-    <t>we</t>
-  </si>
-  <si>
-    <t>grocery</t>
-  </si>
-  <si>
-    <t>it</t>
-  </si>
-  <si>
-    <t>for</t>
-  </si>
-  <si>
     <t>?</t>
-  </si>
-  <si>
-    <t>i</t>
   </si>
   <si>
     <t>in</t>
@@ -638,7 +629,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q63"/>
+  <dimension ref="A1:Q61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -646,10 +637,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="J1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -707,13 +698,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.7671232876712328</v>
+        <v>0.7586206896551724</v>
       </c>
       <c r="C3">
-        <v>224</v>
+        <v>22</v>
       </c>
       <c r="D3">
-        <v>224</v>
+        <v>22</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -725,10 +716,10 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>68</v>
+        <v>7</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="K3">
         <v>0.9565217391304348</v>
@@ -757,13 +748,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.7241379310344828</v>
+        <v>0.7568493150684932</v>
       </c>
       <c r="C4">
-        <v>21</v>
+        <v>221</v>
       </c>
       <c r="D4">
-        <v>21</v>
+        <v>221</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -775,19 +766,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>8</v>
+        <v>71</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="K4">
-        <v>0.9322033898305084</v>
+        <v>0.9152542372881356</v>
       </c>
       <c r="L4">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M4">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -799,7 +790,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -807,7 +798,7 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.6756756756756757</v>
+        <v>0.7352941176470589</v>
       </c>
       <c r="C5">
         <v>25</v>
@@ -825,19 +816,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="K5">
-        <v>0.9083333333333333</v>
+        <v>0.8916666666666667</v>
       </c>
       <c r="L5">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="M5">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -849,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -878,28 +869,28 @@
         <v>12</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="K6">
-        <v>0.8846153846153846</v>
+        <v>0.8828828828828829</v>
       </c>
       <c r="L6">
-        <v>23</v>
+        <v>98</v>
       </c>
       <c r="M6">
-        <v>23</v>
+        <v>99</v>
       </c>
       <c r="N6">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q6">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -907,13 +898,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.6052631578947368</v>
+        <v>0.5</v>
       </c>
       <c r="C7">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D7">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -925,19 +916,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="K7">
-        <v>0.8839285714285714</v>
+        <v>0.8636363636363636</v>
       </c>
       <c r="L7">
-        <v>99</v>
+        <v>19</v>
       </c>
       <c r="M7">
-        <v>99</v>
+        <v>19</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -949,7 +940,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -957,13 +948,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.5882352941176471</v>
+        <v>0.4321705426356589</v>
       </c>
       <c r="C8">
-        <v>20</v>
+        <v>223</v>
       </c>
       <c r="D8">
-        <v>20</v>
+        <v>223</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -975,19 +966,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>14</v>
+        <v>293</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="K8">
-        <v>0.8787878787878788</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="L8">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="M8">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1007,13 +998,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.4457364341085271</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="C9">
-        <v>230</v>
+        <v>81</v>
       </c>
       <c r="D9">
-        <v>230</v>
+        <v>81</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1025,10 +1016,10 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>286</v>
+        <v>108</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="K9">
         <v>0.839622641509434</v>
@@ -1057,13 +1048,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.4313725490196079</v>
+        <v>0.392156862745098</v>
       </c>
       <c r="C10">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D10">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1075,10 +1066,10 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="K10">
         <v>0.8333333333333334</v>
@@ -1107,13 +1098,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.4285714285714285</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="C11">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="D11">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1125,19 +1116,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>108</v>
+        <v>35</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="K11">
-        <v>0.8198433420365535</v>
+        <v>0.8328981723237598</v>
       </c>
       <c r="L11">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="M11">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1149,7 +1140,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1157,13 +1148,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.4266666666666667</v>
+        <v>0.3559322033898305</v>
       </c>
       <c r="C12">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="D12">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1175,19 +1166,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="K12">
-        <v>0.8103448275862069</v>
+        <v>0.8292682926829268</v>
       </c>
       <c r="L12">
-        <v>47</v>
+        <v>68</v>
       </c>
       <c r="M12">
-        <v>47</v>
+        <v>68</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1199,7 +1190,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1207,13 +1198,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.423728813559322</v>
+        <v>0.302013422818792</v>
       </c>
       <c r="C13">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="D13">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1225,19 +1216,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>34</v>
+        <v>104</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="K13">
-        <v>0.8055555555555556</v>
+        <v>0.8125</v>
       </c>
       <c r="L13">
-        <v>29</v>
+        <v>130</v>
       </c>
       <c r="M13">
-        <v>29</v>
+        <v>130</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1249,7 +1240,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>7</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1257,13 +1248,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.3454545454545455</v>
+        <v>0.28</v>
       </c>
       <c r="C14">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D14">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1275,19 +1266,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="K14">
-        <v>0.7890625</v>
+        <v>0.8103448275862069</v>
       </c>
       <c r="L14">
-        <v>101</v>
+        <v>47</v>
       </c>
       <c r="M14">
-        <v>101</v>
+        <v>47</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1299,7 +1290,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>27</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1307,13 +1298,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.3392857142857143</v>
+        <v>0.2055555555555555</v>
       </c>
       <c r="C15">
-        <v>19</v>
+        <v>74</v>
       </c>
       <c r="D15">
-        <v>19</v>
+        <v>74</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1325,19 +1316,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>37</v>
+        <v>286</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="K15">
-        <v>0.7887323943661971</v>
+        <v>0.7916666666666666</v>
       </c>
       <c r="L15">
-        <v>112</v>
+        <v>38</v>
       </c>
       <c r="M15">
-        <v>112</v>
+        <v>38</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1349,7 +1340,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1357,13 +1348,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.302013422818792</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="C16">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="D16">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1375,19 +1366,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>104</v>
+        <v>217</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="K16">
-        <v>0.7875</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L16">
-        <v>126</v>
+        <v>28</v>
       </c>
       <c r="M16">
-        <v>126</v>
+        <v>28</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1399,7 +1390,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>34</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1407,13 +1398,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.2555555555555555</v>
+        <v>0.07774798927613941</v>
       </c>
       <c r="C17">
-        <v>92</v>
+        <v>29</v>
       </c>
       <c r="D17">
-        <v>92</v>
+        <v>29</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1425,19 +1416,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>268</v>
+        <v>344</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="K17">
-        <v>0.7804878048780488</v>
+        <v>0.7659574468085106</v>
       </c>
       <c r="L17">
-        <v>64</v>
+        <v>36</v>
       </c>
       <c r="M17">
-        <v>64</v>
+        <v>36</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1449,7 +1440,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1457,37 +1448,37 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.1468253968253968</v>
+        <v>0.01841680129240711</v>
       </c>
       <c r="C18">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="D18">
-        <v>37</v>
+        <v>69</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="G18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18">
-        <v>215</v>
+        <v>3038</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="K18">
-        <v>0.7659574468085106</v>
+        <v>0.7535211267605634</v>
       </c>
       <c r="L18">
-        <v>36</v>
+        <v>107</v>
       </c>
       <c r="M18">
-        <v>36</v>
+        <v>107</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1499,7 +1490,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>11</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1507,37 +1498,37 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.1021505376344086</v>
+        <v>0.01731601731601732</v>
       </c>
       <c r="C19">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="D19">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="E19">
-        <v>0.03</v>
+        <v>0.23</v>
       </c>
       <c r="F19">
-        <v>0.97</v>
+        <v>0.77</v>
       </c>
       <c r="G19" t="b">
         <v>1</v>
       </c>
       <c r="H19">
-        <v>334</v>
+        <v>1135</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="K19">
-        <v>0.75</v>
+        <v>0.746031746031746</v>
       </c>
       <c r="L19">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="M19">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1549,7 +1540,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1557,37 +1548,37 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.01988155668358714</v>
+        <v>0.01693320790216369</v>
       </c>
       <c r="C20">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="D20">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="E20">
-        <v>0.24</v>
+        <v>0.32</v>
       </c>
       <c r="F20">
-        <v>0.76</v>
+        <v>0.6799999999999999</v>
       </c>
       <c r="G20" t="b">
         <v>1</v>
       </c>
       <c r="H20">
-        <v>2317</v>
+        <v>2090</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="K20">
-        <v>0.7435897435897436</v>
+        <v>0.7441860465116279</v>
       </c>
       <c r="L20">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="M20">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1599,7 +1590,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1607,37 +1598,37 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.01943634596695821</v>
+        <v>0.01357082273112807</v>
       </c>
       <c r="C21">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="D21">
-        <v>80</v>
+        <v>53</v>
       </c>
       <c r="E21">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="F21">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="G21" t="b">
         <v>1</v>
       </c>
       <c r="H21">
-        <v>3027</v>
+        <v>2326</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="K21">
-        <v>0.7428571428571429</v>
+        <v>0.7421875</v>
       </c>
       <c r="L21">
-        <v>26</v>
+        <v>95</v>
       </c>
       <c r="M21">
-        <v>26</v>
+        <v>95</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1649,7 +1640,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>9</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1657,37 +1648,37 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.01728608470181504</v>
+        <v>0.01007446342531756</v>
       </c>
       <c r="C22">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D22">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="E22">
-        <v>0.17</v>
+        <v>0.53</v>
       </c>
       <c r="F22">
-        <v>0.83</v>
+        <v>0.47</v>
       </c>
       <c r="G22" t="b">
         <v>1</v>
       </c>
       <c r="H22">
-        <v>1137</v>
+        <v>2260</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="K22">
-        <v>0.7209302325581395</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L22">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="M22">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1699,7 +1690,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1707,37 +1698,37 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.01500789889415482</v>
+        <v>0.00866482867270579</v>
       </c>
       <c r="C23">
+        <v>44</v>
+      </c>
+      <c r="D23">
+        <v>131</v>
+      </c>
+      <c r="E23">
+        <v>0.66</v>
+      </c>
+      <c r="F23">
+        <v>0.34</v>
+      </c>
+      <c r="G23" t="b">
+        <v>1</v>
+      </c>
+      <c r="H23">
+        <v>5034</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="K23">
+        <v>0.7037037037037037</v>
+      </c>
+      <c r="L23">
         <v>19</v>
       </c>
-      <c r="D23">
-        <v>42</v>
-      </c>
-      <c r="E23">
-        <v>0.55</v>
-      </c>
-      <c r="F23">
-        <v>0.45</v>
-      </c>
-      <c r="G23" t="b">
-        <v>1</v>
-      </c>
-      <c r="H23">
-        <v>1247</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="K23">
-        <v>0.68</v>
-      </c>
-      <c r="L23">
-        <v>34</v>
-      </c>
       <c r="M23">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1749,7 +1740,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1757,37 +1748,37 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.01491228070175439</v>
+        <v>0.007921998781230956</v>
       </c>
       <c r="C24">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D24">
-        <v>63</v>
+        <v>112</v>
       </c>
       <c r="E24">
-        <v>0.46</v>
+        <v>0.65</v>
       </c>
       <c r="F24">
-        <v>0.54</v>
+        <v>0.35</v>
       </c>
       <c r="G24" t="b">
         <v>1</v>
       </c>
       <c r="H24">
-        <v>2246</v>
+        <v>4884</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="K24">
-        <v>0.6785714285714286</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="L24">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="M24">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1799,7 +1790,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1807,37 +1798,37 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.01224105461393597</v>
+        <v>0.007657945118059987</v>
       </c>
       <c r="C25">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D25">
-        <v>45</v>
+        <v>91</v>
       </c>
       <c r="E25">
-        <v>0.42</v>
+        <v>0.74</v>
       </c>
       <c r="F25">
-        <v>0.5800000000000001</v>
+        <v>0.26</v>
       </c>
       <c r="G25" t="b">
         <v>1</v>
       </c>
       <c r="H25">
-        <v>2098</v>
+        <v>3110</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="K25">
-        <v>0.6666666666666666</v>
+        <v>0.68</v>
       </c>
       <c r="L25">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="M25">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1849,7 +1840,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1857,313 +1848,193 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.01021611001964636</v>
+        <v>0.007219375873311598</v>
       </c>
       <c r="C26">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="D26">
-        <v>127</v>
+        <v>65</v>
       </c>
       <c r="E26">
-        <v>0.59</v>
+        <v>0.52</v>
       </c>
       <c r="F26">
-        <v>0.41</v>
+        <v>0.48</v>
       </c>
       <c r="G26" t="b">
         <v>1</v>
       </c>
       <c r="H26">
-        <v>5038</v>
+        <v>4263</v>
       </c>
       <c r="J26" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K26">
+        <v>0.6785714285714286</v>
+      </c>
+      <c r="L26">
+        <v>19</v>
+      </c>
+      <c r="M26">
+        <v>19</v>
+      </c>
+      <c r="N26">
+        <v>1</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17">
+      <c r="J27" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K27">
+        <v>0.6785714285714286</v>
+      </c>
+      <c r="L27">
+        <v>19</v>
+      </c>
+      <c r="M27">
+        <v>19</v>
+      </c>
+      <c r="N27">
+        <v>1</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17">
+      <c r="J28" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="K28">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="L28">
+        <v>22</v>
+      </c>
+      <c r="M28">
+        <v>22</v>
+      </c>
+      <c r="N28">
+        <v>1</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17">
+      <c r="J29" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="K29">
+        <v>0.65</v>
+      </c>
+      <c r="L29">
+        <v>221</v>
+      </c>
+      <c r="M29">
+        <v>221</v>
+      </c>
+      <c r="N29">
+        <v>1</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17">
+      <c r="J30" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K30">
+        <v>0.6063829787234043</v>
+      </c>
+      <c r="L30">
+        <v>57</v>
+      </c>
+      <c r="M30">
+        <v>57</v>
+      </c>
+      <c r="N30">
+        <v>1</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17">
+      <c r="J31" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="K26">
-        <v>0.6147058823529412</v>
-      </c>
-      <c r="L26">
-        <v>209</v>
-      </c>
-      <c r="M26">
-        <v>209</v>
-      </c>
-      <c r="N26">
-        <v>1</v>
-      </c>
-      <c r="O26">
-        <v>0</v>
-      </c>
-      <c r="P26" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q26">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17">
-      <c r="A27" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27">
-        <v>0.008779264214046822</v>
-      </c>
-      <c r="C27">
-        <v>21</v>
-      </c>
-      <c r="D27">
-        <v>74</v>
-      </c>
-      <c r="E27">
-        <v>0.72</v>
-      </c>
-      <c r="F27">
-        <v>0.28</v>
-      </c>
-      <c r="G27" t="b">
-        <v>1</v>
-      </c>
-      <c r="H27">
-        <v>2371</v>
-      </c>
-      <c r="J27" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="K27">
+      <c r="K31">
         <v>0.6060606060606061</v>
       </c>
-      <c r="L27">
+      <c r="L31">
         <v>20</v>
       </c>
-      <c r="M27">
+      <c r="M31">
         <v>20</v>
       </c>
-      <c r="N27">
-        <v>1</v>
-      </c>
-      <c r="O27">
-        <v>0</v>
-      </c>
-      <c r="P27" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q27">
+      <c r="N31">
+        <v>1</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q31">
         <v>13</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17">
-      <c r="A28" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B28">
-        <v>0.008574150523975865</v>
-      </c>
-      <c r="C28">
-        <v>27</v>
-      </c>
-      <c r="D28">
-        <v>79</v>
-      </c>
-      <c r="E28">
-        <v>0.66</v>
-      </c>
-      <c r="F28">
-        <v>0.34</v>
-      </c>
-      <c r="G28" t="b">
-        <v>1</v>
-      </c>
-      <c r="H28">
-        <v>3122</v>
-      </c>
-      <c r="J28" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="K28">
-        <v>0.5952380952380952</v>
-      </c>
-      <c r="L28">
-        <v>175</v>
-      </c>
-      <c r="M28">
-        <v>176</v>
-      </c>
-      <c r="N28">
-        <v>0.99</v>
-      </c>
-      <c r="O28">
-        <v>0.01000000000000001</v>
-      </c>
-      <c r="P28" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q28">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17">
-      <c r="A29" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B29">
-        <v>0.0075046904315197</v>
-      </c>
-      <c r="C29">
-        <v>32</v>
-      </c>
-      <c r="D29">
-        <v>96</v>
-      </c>
-      <c r="E29">
-        <v>0.67</v>
-      </c>
-      <c r="F29">
-        <v>0.33</v>
-      </c>
-      <c r="G29" t="b">
-        <v>1</v>
-      </c>
-      <c r="H29">
-        <v>4232</v>
-      </c>
-      <c r="J29" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="K29">
-        <v>0.5857740585774058</v>
-      </c>
-      <c r="L29">
-        <v>140</v>
-      </c>
-      <c r="M29">
-        <v>140</v>
-      </c>
-      <c r="N29">
-        <v>1</v>
-      </c>
-      <c r="O29">
-        <v>0</v>
-      </c>
-      <c r="P29" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q29">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17">
-      <c r="A30" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B30">
-        <v>0.007293666026871401</v>
-      </c>
-      <c r="C30">
-        <v>19</v>
-      </c>
-      <c r="D30">
-        <v>87</v>
-      </c>
-      <c r="E30">
-        <v>0.78</v>
-      </c>
-      <c r="F30">
-        <v>0.22</v>
-      </c>
-      <c r="G30" t="b">
-        <v>1</v>
-      </c>
-      <c r="H30">
-        <v>2586</v>
-      </c>
-      <c r="J30" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="K30">
-        <v>0.574468085106383</v>
-      </c>
-      <c r="L30">
-        <v>54</v>
-      </c>
-      <c r="M30">
-        <v>54</v>
-      </c>
-      <c r="N30">
-        <v>1</v>
-      </c>
-      <c r="O30">
-        <v>0</v>
-      </c>
-      <c r="P30" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q30">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17">
-      <c r="A31" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B31">
-        <v>0.007129761662253004</v>
-      </c>
-      <c r="C31">
-        <v>35</v>
-      </c>
-      <c r="D31">
-        <v>122</v>
-      </c>
-      <c r="E31">
-        <v>0.71</v>
-      </c>
-      <c r="F31">
-        <v>0.29</v>
-      </c>
-      <c r="G31" t="b">
-        <v>1</v>
-      </c>
-      <c r="H31">
-        <v>4874</v>
-      </c>
-      <c r="J31" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="K31">
-        <v>0.5730337078651685</v>
-      </c>
-      <c r="L31">
-        <v>51</v>
-      </c>
-      <c r="M31">
-        <v>51</v>
-      </c>
-      <c r="N31">
-        <v>1</v>
-      </c>
-      <c r="O31">
-        <v>0</v>
-      </c>
-      <c r="P31" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q31">
-        <v>38</v>
       </c>
     </row>
     <row r="32" spans="1:17">
       <c r="J32" s="1" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="K32">
-        <v>0.5714285714285714</v>
+        <v>0.6</v>
       </c>
       <c r="L32">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="M32">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2175,47 +2046,47 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="K33">
-        <v>0.55</v>
+        <v>0.5952380952380952</v>
       </c>
       <c r="L33">
-        <v>22</v>
+        <v>175</v>
       </c>
       <c r="M33">
-        <v>22</v>
+        <v>176</v>
       </c>
       <c r="N33">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O33">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q33">
-        <v>18</v>
+        <v>119</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="K34">
-        <v>0.5076923076923077</v>
+        <v>0.5899581589958159</v>
       </c>
       <c r="L34">
-        <v>33</v>
+        <v>141</v>
       </c>
       <c r="M34">
-        <v>33</v>
+        <v>141</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2227,21 +2098,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>32</v>
+        <v>98</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="K35">
-        <v>0.5</v>
+        <v>0.5857142857142857</v>
       </c>
       <c r="L35">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="M35">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2253,21 +2124,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="K36">
-        <v>0.4313725490196079</v>
+        <v>0.5617977528089888</v>
       </c>
       <c r="L36">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="M36">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2279,21 +2150,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>29</v>
+        <v>39</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="K37">
-        <v>0.410958904109589</v>
+        <v>0.5538461538461539</v>
       </c>
       <c r="L37">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="M37">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2305,21 +2176,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>43</v>
+        <v>29</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="K38">
-        <v>0.3717948717948718</v>
+        <v>0.4705882352941176</v>
       </c>
       <c r="L38">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="M38">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2331,41 +2202,41 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>49</v>
+        <v>27</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="K39">
-        <v>0.3389830508474576</v>
+        <v>0.4634146341463415</v>
       </c>
       <c r="L39">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M39">
         <v>20</v>
       </c>
       <c r="N39">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O39">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q39">
-        <v>39</v>
+        <v>22</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="K40">
-        <v>0.3114754098360656</v>
+        <v>0.4222222222222222</v>
       </c>
       <c r="L40">
         <v>19</v>
@@ -2383,21 +2254,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>42</v>
+        <v>26</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="K41">
-        <v>0.06493506493506493</v>
+        <v>0.3717948717948718</v>
       </c>
       <c r="L41">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="M41">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2409,67 +2280,67 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>288</v>
+        <v>49</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="K42">
-        <v>0.05128205128205128</v>
+        <v>0.3698630136986301</v>
       </c>
       <c r="L42">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M42">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="N42">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O42">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q42">
-        <v>518</v>
+        <v>46</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="K43">
-        <v>0.04578313253012048</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L43">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="M43">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="N43">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="O43">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="P43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q43">
-        <v>396</v>
+        <v>48</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="K44">
-        <v>0.04578313253012048</v>
+        <v>0.1172839506172839</v>
       </c>
       <c r="L44">
         <v>19</v>
@@ -2487,267 +2358,267 @@
         <v>1</v>
       </c>
       <c r="Q44">
-        <v>396</v>
+        <v>143</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="K45">
-        <v>0.04096989966555184</v>
+        <v>0.05850091407678245</v>
       </c>
       <c r="L45">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="M45">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="N45">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="O45">
-        <v>0.07999999999999996</v>
+        <v>0</v>
       </c>
       <c r="P45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q45">
-        <v>1147</v>
+        <v>515</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="K46">
-        <v>0.03350253807106599</v>
+        <v>0.04924874791318865</v>
       </c>
       <c r="L46">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="M46">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="N46">
-        <v>0.89</v>
+        <v>0.97</v>
       </c>
       <c r="O46">
-        <v>0.11</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P46" t="b">
         <v>1</v>
       </c>
       <c r="Q46">
-        <v>952</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="K47">
-        <v>0.03161397670549085</v>
+        <v>0.03353658536585366</v>
       </c>
       <c r="L47">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="M47">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="N47">
-        <v>0.83</v>
+        <v>0.87</v>
       </c>
       <c r="O47">
-        <v>0.17</v>
+        <v>0.13</v>
       </c>
       <c r="P47" t="b">
         <v>1</v>
       </c>
       <c r="Q47">
-        <v>582</v>
+        <v>951</v>
       </c>
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="K48">
-        <v>0.02562170308967596</v>
+        <v>0.02408477842003854</v>
       </c>
       <c r="L48">
-        <v>68</v>
+        <v>25</v>
       </c>
       <c r="M48">
-        <v>87</v>
+        <v>27</v>
       </c>
       <c r="N48">
-        <v>0.78</v>
+        <v>0.93</v>
       </c>
       <c r="O48">
-        <v>0.22</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P48" t="b">
         <v>1</v>
       </c>
       <c r="Q48">
-        <v>2586</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="K49">
-        <v>0.02552719200887902</v>
+        <v>0.0230357877416701</v>
       </c>
       <c r="L49">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="M49">
-        <v>23</v>
+        <v>70</v>
       </c>
       <c r="N49">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="O49">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="P49" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q49">
-        <v>878</v>
+        <v>2375</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="K50">
-        <v>0.02506265664160401</v>
+        <v>0.02275600505689001</v>
       </c>
       <c r="L50">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="M50">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="N50">
-        <v>0.87</v>
+        <v>0.75</v>
       </c>
       <c r="O50">
-        <v>0.13</v>
+        <v>0.25</v>
       </c>
       <c r="P50" t="b">
         <v>1</v>
       </c>
       <c r="Q50">
-        <v>778</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="K51">
-        <v>0.02206809583858764</v>
+        <v>0.02258185923974407</v>
       </c>
       <c r="L51">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="M51">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="N51">
-        <v>0.8100000000000001</v>
+        <v>0.79</v>
       </c>
       <c r="O51">
-        <v>0.1899999999999999</v>
+        <v>0.21</v>
       </c>
       <c r="P51" t="b">
         <v>1</v>
       </c>
       <c r="Q51">
-        <v>1551</v>
+        <v>2597</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>32</v>
+        <v>82</v>
       </c>
       <c r="K52">
-        <v>0.02186468646864687</v>
+        <v>0.02125279642058166</v>
       </c>
       <c r="L52">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="M52">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="N52">
-        <v>0.72</v>
+        <v>1</v>
       </c>
       <c r="O52">
-        <v>0.28</v>
+        <v>0</v>
       </c>
       <c r="P52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q52">
-        <v>2371</v>
+        <v>875</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>86</v>
+        <v>30</v>
       </c>
       <c r="K53">
-        <v>0.01969823973176865</v>
+        <v>0.02108907774630154</v>
       </c>
       <c r="L53">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="M53">
-        <v>55</v>
+        <v>91</v>
       </c>
       <c r="N53">
-        <v>0.85</v>
+        <v>0.74</v>
       </c>
       <c r="O53">
-        <v>0.15</v>
+        <v>0.26</v>
       </c>
       <c r="P53" t="b">
         <v>1</v>
       </c>
       <c r="Q53">
-        <v>2339</v>
+        <v>3110</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="K54">
-        <v>0.01828681424446583</v>
+        <v>0.01798279906176701</v>
       </c>
       <c r="L54">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="M54">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="N54">
-        <v>0.95</v>
+        <v>0.7</v>
       </c>
       <c r="O54">
-        <v>0.05000000000000004</v>
+        <v>0.3</v>
       </c>
       <c r="P54" t="b">
         <v>1</v>
       </c>
       <c r="Q54">
-        <v>1020</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="55" spans="10:17">
@@ -2755,233 +2626,181 @@
         <v>28</v>
       </c>
       <c r="K55">
-        <v>0.01811023622047244</v>
+        <v>0.01698886936145284</v>
       </c>
       <c r="L55">
-        <v>23</v>
+        <v>87</v>
       </c>
       <c r="M55">
-        <v>42</v>
+        <v>131</v>
       </c>
       <c r="N55">
-        <v>0.55</v>
+        <v>0.66</v>
       </c>
       <c r="O55">
-        <v>0.45</v>
+        <v>0.34</v>
       </c>
       <c r="P55" t="b">
         <v>1</v>
       </c>
       <c r="Q55">
-        <v>1247</v>
+        <v>5034</v>
       </c>
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="K56">
+        <v>0.01506906655504395</v>
+      </c>
+      <c r="L56">
         <v>36</v>
       </c>
-      <c r="K56">
-        <v>0.01753678693811732</v>
-      </c>
-      <c r="L56">
-        <v>87</v>
-      </c>
       <c r="M56">
-        <v>122</v>
+        <v>41</v>
       </c>
       <c r="N56">
-        <v>0.71</v>
+        <v>0.88</v>
       </c>
       <c r="O56">
-        <v>0.29</v>
+        <v>0.12</v>
       </c>
       <c r="P56" t="b">
         <v>1</v>
       </c>
       <c r="Q56">
-        <v>4874</v>
+        <v>2353</v>
       </c>
     </row>
     <row r="57" spans="10:17">
       <c r="J57" s="1" t="s">
-        <v>88</v>
+        <v>29</v>
       </c>
       <c r="K57">
-        <v>0.0167675826734979</v>
+        <v>0.01472664918297357</v>
       </c>
       <c r="L57">
-        <v>36</v>
+        <v>73</v>
       </c>
       <c r="M57">
-        <v>47</v>
+        <v>112</v>
       </c>
       <c r="N57">
-        <v>0.77</v>
+        <v>0.65</v>
       </c>
       <c r="O57">
-        <v>0.23</v>
+        <v>0.35</v>
       </c>
       <c r="P57" t="b">
         <v>1</v>
       </c>
       <c r="Q57">
-        <v>2111</v>
+        <v>4884</v>
       </c>
     </row>
     <row r="58" spans="10:17">
       <c r="J58" s="1" t="s">
-        <v>33</v>
+        <v>85</v>
       </c>
       <c r="K58">
-        <v>0.01638311279143037</v>
+        <v>0.01304145319049837</v>
       </c>
       <c r="L58">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="M58">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="N58">
-        <v>0.66</v>
+        <v>0.72</v>
       </c>
       <c r="O58">
-        <v>0.34</v>
+        <v>0.28</v>
       </c>
       <c r="P58" t="b">
         <v>1</v>
       </c>
       <c r="Q58">
-        <v>3122</v>
+        <v>2119</v>
       </c>
     </row>
     <row r="59" spans="10:17">
       <c r="J59" s="1" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="K59">
-        <v>0.0148975791433892</v>
+        <v>0.01137357830271216</v>
       </c>
       <c r="L59">
-        <v>64</v>
+        <v>26</v>
       </c>
       <c r="M59">
-        <v>96</v>
+        <v>49</v>
       </c>
       <c r="N59">
-        <v>0.67</v>
+        <v>0.53</v>
       </c>
       <c r="O59">
-        <v>0.33</v>
+        <v>0.47</v>
       </c>
       <c r="P59" t="b">
         <v>1</v>
       </c>
       <c r="Q59">
-        <v>4232</v>
+        <v>2260</v>
       </c>
     </row>
     <row r="60" spans="10:17">
       <c r="J60" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="K60">
-        <v>0.01466849207901428</v>
+        <v>0.008947592671495527</v>
       </c>
       <c r="L60">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="M60">
-        <v>127</v>
+        <v>53</v>
       </c>
       <c r="N60">
-        <v>0.59</v>
+        <v>0.4</v>
       </c>
       <c r="O60">
-        <v>0.41</v>
+        <v>0.6</v>
       </c>
       <c r="P60" t="b">
         <v>1</v>
       </c>
       <c r="Q60">
-        <v>5038</v>
+        <v>2326</v>
       </c>
     </row>
     <row r="61" spans="10:17">
       <c r="J61" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="K61">
-        <v>0.01274725274725275</v>
+        <v>0.007912497090993717</v>
       </c>
       <c r="L61">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="M61">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="N61">
-        <v>0.46</v>
+        <v>0.52</v>
       </c>
       <c r="O61">
-        <v>0.54</v>
+        <v>0.48</v>
       </c>
       <c r="P61" t="b">
         <v>1</v>
       </c>
       <c r="Q61">
-        <v>2246</v>
-      </c>
-    </row>
-    <row r="62" spans="10:17">
-      <c r="J62" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="K62">
-        <v>0.008974964572508267</v>
-      </c>
-      <c r="L62">
-        <v>19</v>
-      </c>
-      <c r="M62">
-        <v>45</v>
-      </c>
-      <c r="N62">
-        <v>0.42</v>
-      </c>
-      <c r="O62">
-        <v>0.5800000000000001</v>
-      </c>
-      <c r="P62" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q62">
-        <v>2098</v>
-      </c>
-    </row>
-    <row r="63" spans="10:17">
-      <c r="J63" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="K63">
-        <v>0.006563833278634723</v>
-      </c>
-      <c r="L63">
-        <v>20</v>
-      </c>
-      <c r="M63">
-        <v>80</v>
-      </c>
-      <c r="N63">
-        <v>0.25</v>
-      </c>
-      <c r="O63">
-        <v>0.75</v>
-      </c>
-      <c r="P63" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q63">
-        <v>3027</v>
+        <v>4263</v>
       </c>
     </row>
   </sheetData>
